--- a/data/area-mappings.xlsx
+++ b/data/area-mappings.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF131C4B-20E4-4937-86C2-75955325B14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFBD7D4-419E-459C-AC57-7D9C4CDAD856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2792" uniqueCount="1126">
   <si>
     <t>admin2Name_en</t>
   </si>
@@ -3745,11 +3745,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G559"/>
+  <dimension ref="A1:G558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A545" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D559" sqref="D559"/>
+      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D193" sqref="D193:D249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4189,7 +4189,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>1</v>
@@ -4212,7 +4212,7 @@
         <v>33</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>1</v>
@@ -4235,7 +4235,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>1</v>
@@ -4258,7 +4258,7 @@
         <v>37</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>1</v>
@@ -4281,7 +4281,7 @@
         <v>39</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>1</v>
@@ -4304,7 +4304,7 @@
         <v>41</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>1</v>
@@ -4327,7 +4327,7 @@
         <v>43</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>1</v>
@@ -4350,7 +4350,7 @@
         <v>45</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>1</v>
@@ -4373,7 +4373,7 @@
         <v>47</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>1</v>
@@ -4396,7 +4396,7 @@
         <v>49</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>1</v>
@@ -4419,7 +4419,7 @@
         <v>51</v>
       </c>
       <c r="D29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>1</v>
@@ -4442,7 +4442,7 @@
         <v>53</v>
       </c>
       <c r="D30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>1</v>
@@ -4465,7 +4465,7 @@
         <v>55</v>
       </c>
       <c r="D31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>1</v>
@@ -4488,7 +4488,7 @@
         <v>57</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>1</v>
@@ -4511,7 +4511,7 @@
         <v>59</v>
       </c>
       <c r="D33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>1</v>
@@ -4534,7 +4534,7 @@
         <v>60</v>
       </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>1</v>
@@ -4557,7 +4557,7 @@
         <v>62</v>
       </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>1</v>
@@ -4580,7 +4580,7 @@
         <v>64</v>
       </c>
       <c r="D36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>1</v>
@@ -4603,7 +4603,7 @@
         <v>66</v>
       </c>
       <c r="D37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>1</v>
@@ -4626,7 +4626,7 @@
         <v>68</v>
       </c>
       <c r="D38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>1</v>
@@ -4649,7 +4649,7 @@
         <v>70</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>1</v>
@@ -4672,7 +4672,7 @@
         <v>72</v>
       </c>
       <c r="D40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>1</v>
@@ -4695,7 +4695,7 @@
         <v>74</v>
       </c>
       <c r="D41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>1</v>
@@ -4718,7 +4718,7 @@
         <v>76</v>
       </c>
       <c r="D42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>1</v>
@@ -4741,7 +4741,7 @@
         <v>78</v>
       </c>
       <c r="D43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>1</v>
@@ -4764,7 +4764,7 @@
         <v>80</v>
       </c>
       <c r="D44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>1</v>
@@ -4787,7 +4787,7 @@
         <v>82</v>
       </c>
       <c r="D45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>1</v>
@@ -4810,7 +4810,7 @@
         <v>84</v>
       </c>
       <c r="D46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>1</v>
@@ -4833,7 +4833,7 @@
         <v>86</v>
       </c>
       <c r="D47" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>1</v>
@@ -4856,7 +4856,7 @@
         <v>88</v>
       </c>
       <c r="D48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>1</v>
@@ -4879,7 +4879,7 @@
         <v>90</v>
       </c>
       <c r="D49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>1</v>
@@ -4902,7 +4902,7 @@
         <v>92</v>
       </c>
       <c r="D50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>1</v>
@@ -4925,7 +4925,7 @@
         <v>94</v>
       </c>
       <c r="D51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>1</v>
@@ -4948,7 +4948,7 @@
         <v>96</v>
       </c>
       <c r="D52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>1</v>
@@ -4971,7 +4971,7 @@
         <v>98</v>
       </c>
       <c r="D53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>1</v>
@@ -4994,7 +4994,7 @@
         <v>801</v>
       </c>
       <c r="D54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>1</v>
@@ -5017,7 +5017,7 @@
         <v>803</v>
       </c>
       <c r="D55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>1</v>
@@ -5040,7 +5040,7 @@
         <v>363</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>1</v>
@@ -5063,7 +5063,7 @@
         <v>805</v>
       </c>
       <c r="D57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>1</v>
@@ -5086,7 +5086,7 @@
         <v>807</v>
       </c>
       <c r="D58" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>1</v>
@@ -5109,7 +5109,7 @@
         <v>809</v>
       </c>
       <c r="D59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>1</v>
@@ -5132,7 +5132,7 @@
         <v>811</v>
       </c>
       <c r="D60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>1</v>
@@ -5155,7 +5155,7 @@
         <v>813</v>
       </c>
       <c r="D61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>1</v>
@@ -5178,7 +5178,7 @@
         <v>815</v>
       </c>
       <c r="D62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>1</v>
@@ -5201,7 +5201,7 @@
         <v>817</v>
       </c>
       <c r="D63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>1</v>
@@ -5224,7 +5224,7 @@
         <v>819</v>
       </c>
       <c r="D64" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>1</v>
@@ -5247,7 +5247,7 @@
         <v>19</v>
       </c>
       <c r="D65" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>1</v>
@@ -5270,7 +5270,7 @@
         <v>821</v>
       </c>
       <c r="D66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>1</v>
@@ -5293,7 +5293,7 @@
         <v>823</v>
       </c>
       <c r="D67" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>1</v>
@@ -5316,7 +5316,7 @@
         <v>825</v>
       </c>
       <c r="D68" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>1</v>
@@ -5339,7 +5339,7 @@
         <v>827</v>
       </c>
       <c r="D69" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>1</v>
@@ -5362,7 +5362,7 @@
         <v>829</v>
       </c>
       <c r="D70" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>1</v>
@@ -5385,7 +5385,7 @@
         <v>831</v>
       </c>
       <c r="D71" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>1</v>
@@ -5408,7 +5408,7 @@
         <v>833</v>
       </c>
       <c r="D72" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>1</v>
@@ -5431,7 +5431,7 @@
         <v>835</v>
       </c>
       <c r="D73" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>1</v>
@@ -5454,7 +5454,7 @@
         <v>837</v>
       </c>
       <c r="D74" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>1116</v>
@@ -5477,7 +5477,7 @@
         <v>839</v>
       </c>
       <c r="D75" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>1116</v>
@@ -5500,7 +5500,7 @@
         <v>841</v>
       </c>
       <c r="D76" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>1116</v>
@@ -5523,7 +5523,7 @@
         <v>843</v>
       </c>
       <c r="D77" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>1116</v>
@@ -5546,7 +5546,7 @@
         <v>845</v>
       </c>
       <c r="D78" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>1116</v>
@@ -5569,7 +5569,7 @@
         <v>847</v>
       </c>
       <c r="D79" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>1116</v>
@@ -5592,7 +5592,7 @@
         <v>849</v>
       </c>
       <c r="D80" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>1116</v>
@@ -5615,7 +5615,7 @@
         <v>851</v>
       </c>
       <c r="D81" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>1116</v>
@@ -5638,7 +5638,7 @@
         <v>853</v>
       </c>
       <c r="D82" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>1116</v>
@@ -5661,7 +5661,7 @@
         <v>855</v>
       </c>
       <c r="D83" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>1116</v>
@@ -5684,7 +5684,7 @@
         <v>857</v>
       </c>
       <c r="D84" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>1116</v>
@@ -5707,7 +5707,7 @@
         <v>859</v>
       </c>
       <c r="D85" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>1116</v>
@@ -5730,7 +5730,7 @@
         <v>861</v>
       </c>
       <c r="D86" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>1116</v>
@@ -5753,7 +5753,7 @@
         <v>863</v>
       </c>
       <c r="D87" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>1116</v>
@@ -5776,7 +5776,7 @@
         <v>865</v>
       </c>
       <c r="D88" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>1116</v>
@@ -5799,7 +5799,7 @@
         <v>867</v>
       </c>
       <c r="D89" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>1116</v>
@@ -5822,7 +5822,7 @@
         <v>869</v>
       </c>
       <c r="D90" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>1116</v>
@@ -5845,7 +5845,7 @@
         <v>871</v>
       </c>
       <c r="D91" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>1116</v>
@@ -5868,7 +5868,7 @@
         <v>873</v>
       </c>
       <c r="D92" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>1116</v>
@@ -5891,7 +5891,7 @@
         <v>875</v>
       </c>
       <c r="D93" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>1116</v>
@@ -5914,7 +5914,7 @@
         <v>877</v>
       </c>
       <c r="D94" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>1116</v>
@@ -5937,7 +5937,7 @@
         <v>879</v>
       </c>
       <c r="D95" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>1116</v>
@@ -5960,7 +5960,7 @@
         <v>881</v>
       </c>
       <c r="D96" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>1116</v>
@@ -5983,7 +5983,7 @@
         <v>883</v>
       </c>
       <c r="D97" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>1116</v>
@@ -6006,7 +6006,7 @@
         <v>885</v>
       </c>
       <c r="D98" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>1116</v>
@@ -6029,7 +6029,7 @@
         <v>887</v>
       </c>
       <c r="D99" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>1116</v>
@@ -6052,7 +6052,7 @@
         <v>889</v>
       </c>
       <c r="D100" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>1116</v>
@@ -6075,7 +6075,7 @@
         <v>891</v>
       </c>
       <c r="D101" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>1116</v>
@@ -8191,7 +8191,7 @@
         <v>191</v>
       </c>
       <c r="D193" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>7</v>
@@ -8214,7 +8214,7 @@
         <v>193</v>
       </c>
       <c r="D194" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>7</v>
@@ -8237,7 +8237,7 @@
         <v>195</v>
       </c>
       <c r="D195" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>7</v>
@@ -8260,7 +8260,7 @@
         <v>8</v>
       </c>
       <c r="D196" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>7</v>
@@ -8283,7 +8283,7 @@
         <v>197</v>
       </c>
       <c r="D197" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>7</v>
@@ -8306,7 +8306,7 @@
         <v>199</v>
       </c>
       <c r="D198" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>7</v>
@@ -8329,7 +8329,7 @@
         <v>201</v>
       </c>
       <c r="D199" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>7</v>
@@ -8352,7 +8352,7 @@
         <v>203</v>
       </c>
       <c r="D200" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>7</v>
@@ -8375,7 +8375,7 @@
         <v>205</v>
       </c>
       <c r="D201" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>7</v>
@@ -8398,7 +8398,7 @@
         <v>207</v>
       </c>
       <c r="D202" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>7</v>
@@ -8421,7 +8421,7 @@
         <v>209</v>
       </c>
       <c r="D203" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>7</v>
@@ -8444,7 +8444,7 @@
         <v>211</v>
       </c>
       <c r="D204" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>7</v>
@@ -8467,7 +8467,7 @@
         <v>213</v>
       </c>
       <c r="D205" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>7</v>
@@ -8490,7 +8490,7 @@
         <v>215</v>
       </c>
       <c r="D206" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>7</v>
@@ -8513,7 +8513,7 @@
         <v>217</v>
       </c>
       <c r="D207" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>7</v>
@@ -8536,7 +8536,7 @@
         <v>219</v>
       </c>
       <c r="D208" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>7</v>
@@ -8559,7 +8559,7 @@
         <v>221</v>
       </c>
       <c r="D209" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>7</v>
@@ -8582,7 +8582,7 @@
         <v>223</v>
       </c>
       <c r="D210" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>7</v>
@@ -8605,7 +8605,7 @@
         <v>225</v>
       </c>
       <c r="D211" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>7</v>
@@ -8628,7 +8628,7 @@
         <v>227</v>
       </c>
       <c r="D212" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>7</v>
@@ -8651,7 +8651,7 @@
         <v>229</v>
       </c>
       <c r="D213" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>7</v>
@@ -8674,7 +8674,7 @@
         <v>231</v>
       </c>
       <c r="D214" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>7</v>
@@ -8697,7 +8697,7 @@
         <v>233</v>
       </c>
       <c r="D215" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>7</v>
@@ -8720,7 +8720,7 @@
         <v>235</v>
       </c>
       <c r="D216" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>7</v>
@@ -8743,7 +8743,7 @@
         <v>237</v>
       </c>
       <c r="D217" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>7</v>
@@ -8766,7 +8766,7 @@
         <v>239</v>
       </c>
       <c r="D218" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>7</v>
@@ -8789,7 +8789,7 @@
         <v>241</v>
       </c>
       <c r="D219" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>7</v>
@@ -8812,7 +8812,7 @@
         <v>243</v>
       </c>
       <c r="D220" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>7</v>
@@ -8835,7 +8835,7 @@
         <v>245</v>
       </c>
       <c r="D221" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>7</v>
@@ -8858,7 +8858,7 @@
         <v>247</v>
       </c>
       <c r="D222" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>7</v>
@@ -8881,7 +8881,7 @@
         <v>249</v>
       </c>
       <c r="D223" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>7</v>
@@ -8904,7 +8904,7 @@
         <v>251</v>
       </c>
       <c r="D224" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>7</v>
@@ -8927,7 +8927,7 @@
         <v>253</v>
       </c>
       <c r="D225" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>7</v>
@@ -8950,7 +8950,7 @@
         <v>255</v>
       </c>
       <c r="D226" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>7</v>
@@ -8973,7 +8973,7 @@
         <v>257</v>
       </c>
       <c r="D227" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>7</v>
@@ -8996,7 +8996,7 @@
         <v>259</v>
       </c>
       <c r="D228" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>7</v>
@@ -9019,7 +9019,7 @@
         <v>261</v>
       </c>
       <c r="D229" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>7</v>
@@ -9042,7 +9042,7 @@
         <v>263</v>
       </c>
       <c r="D230" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>7</v>
@@ -9065,7 +9065,7 @@
         <v>265</v>
       </c>
       <c r="D231" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>7</v>
@@ -9088,7 +9088,7 @@
         <v>267</v>
       </c>
       <c r="D232" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>7</v>
@@ -9111,7 +9111,7 @@
         <v>269</v>
       </c>
       <c r="D233" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>7</v>
@@ -9134,7 +9134,7 @@
         <v>271</v>
       </c>
       <c r="D234" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>7</v>
@@ -9157,7 +9157,7 @@
         <v>273</v>
       </c>
       <c r="D235" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>7</v>
@@ -9180,7 +9180,7 @@
         <v>275</v>
       </c>
       <c r="D236" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>7</v>
@@ -9203,7 +9203,7 @@
         <v>277</v>
       </c>
       <c r="D237" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>7</v>
@@ -9226,7 +9226,7 @@
         <v>279</v>
       </c>
       <c r="D238" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>7</v>
@@ -9249,7 +9249,7 @@
         <v>281</v>
       </c>
       <c r="D239" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>7</v>
@@ -9272,7 +9272,7 @@
         <v>283</v>
       </c>
       <c r="D240" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>7</v>
@@ -9295,7 +9295,7 @@
         <v>285</v>
       </c>
       <c r="D241" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>7</v>
@@ -9318,7 +9318,7 @@
         <v>287</v>
       </c>
       <c r="D242" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>7</v>
@@ -9341,7 +9341,7 @@
         <v>289</v>
       </c>
       <c r="D243" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>7</v>
@@ -9364,7 +9364,7 @@
         <v>291</v>
       </c>
       <c r="D244" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>7</v>
@@ -9387,7 +9387,7 @@
         <v>293</v>
       </c>
       <c r="D245" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>7</v>
@@ -9410,7 +9410,7 @@
         <v>295</v>
       </c>
       <c r="D246" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>7</v>
@@ -9433,7 +9433,7 @@
         <v>297</v>
       </c>
       <c r="D247" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>7</v>
@@ -9456,7 +9456,7 @@
         <v>299</v>
       </c>
       <c r="D248" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>7</v>
@@ -9479,7 +9479,7 @@
         <v>301</v>
       </c>
       <c r="D249" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>7</v>
@@ -16149,7 +16149,7 @@
         <v>763</v>
       </c>
       <c r="D539" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E539" s="1" t="s">
         <v>17</v>
@@ -16172,7 +16172,7 @@
         <v>765</v>
       </c>
       <c r="D540" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E540" s="1" t="s">
         <v>17</v>
@@ -16195,7 +16195,7 @@
         <v>767</v>
       </c>
       <c r="D541" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E541" s="1" t="s">
         <v>17</v>
@@ -16218,7 +16218,7 @@
         <v>769</v>
       </c>
       <c r="D542" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E542" s="1" t="s">
         <v>17</v>
@@ -16241,7 +16241,7 @@
         <v>771</v>
       </c>
       <c r="D543" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E543" s="1" t="s">
         <v>17</v>
@@ -16264,7 +16264,7 @@
         <v>773</v>
       </c>
       <c r="D544" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E544" s="1" t="s">
         <v>17</v>
@@ -16287,7 +16287,7 @@
         <v>579</v>
       </c>
       <c r="D545" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E545" s="1" t="s">
         <v>17</v>
@@ -16310,7 +16310,7 @@
         <v>775</v>
       </c>
       <c r="D546" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E546" s="1" t="s">
         <v>17</v>
@@ -16333,7 +16333,7 @@
         <v>777</v>
       </c>
       <c r="D547" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E547" s="1" t="s">
         <v>17</v>
@@ -16356,7 +16356,7 @@
         <v>779</v>
       </c>
       <c r="D548" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E548" s="1" t="s">
         <v>17</v>
@@ -16379,7 +16379,7 @@
         <v>781</v>
       </c>
       <c r="D549" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E549" s="1" t="s">
         <v>17</v>
@@ -16402,7 +16402,7 @@
         <v>783</v>
       </c>
       <c r="D550" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E550" s="1" t="s">
         <v>17</v>
@@ -16425,7 +16425,7 @@
         <v>785</v>
       </c>
       <c r="D551" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E551" s="1" t="s">
         <v>17</v>
@@ -16448,7 +16448,7 @@
         <v>787</v>
       </c>
       <c r="D552" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E552" s="1" t="s">
         <v>17</v>
@@ -16471,7 +16471,7 @@
         <v>789</v>
       </c>
       <c r="D553" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E553" s="1" t="s">
         <v>17</v>
@@ -16494,7 +16494,7 @@
         <v>791</v>
       </c>
       <c r="D554" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E554" s="1" t="s">
         <v>17</v>
@@ -16517,7 +16517,7 @@
         <v>793</v>
       </c>
       <c r="D555" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E555" s="1" t="s">
         <v>17</v>
@@ -16540,7 +16540,7 @@
         <v>795</v>
       </c>
       <c r="D556" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E556" s="1" t="s">
         <v>17</v>
@@ -16563,7 +16563,7 @@
         <v>797</v>
       </c>
       <c r="D557" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E557" s="1" t="s">
         <v>17</v>
@@ -16586,7 +16586,7 @@
         <v>799</v>
       </c>
       <c r="D558" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E558" s="1" t="s">
         <v>17</v>
@@ -16596,20 +16596,6 @@
       </c>
       <c r="G558" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A559" s="1">
-        <v>395</v>
-      </c>
-      <c r="B559" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D559" s="1">
-        <v>3</v>
-      </c>
-      <c r="E559" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/area-mappings.xlsx
+++ b/data/area-mappings.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFBD7D4-419E-459C-AC57-7D9C4CDAD856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E82955-229A-494B-B1CA-19805957F857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3748,8 +3748,8 @@
   <dimension ref="A1:G558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D193" sqref="D193:D249"/>
+      <pane ySplit="1" topLeftCell="A503" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D537" sqref="D537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3798,7 +3798,7 @@
         <v>975</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1119</v>
@@ -3821,7 +3821,7 @@
         <v>977</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1119</v>
@@ -3844,7 +3844,7 @@
         <v>979</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1119</v>
@@ -3867,7 +3867,7 @@
         <v>981</v>
       </c>
       <c r="D5" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1119</v>
@@ -3890,7 +3890,7 @@
         <v>983</v>
       </c>
       <c r="D6" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1119</v>
@@ -3913,7 +3913,7 @@
         <v>985</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1119</v>
@@ -3936,7 +3936,7 @@
         <v>987</v>
       </c>
       <c r="D8" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>1119</v>
@@ -3959,7 +3959,7 @@
         <v>987</v>
       </c>
       <c r="D9" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>1119</v>
@@ -3982,7 +3982,7 @@
         <v>991</v>
       </c>
       <c r="D10" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>1119</v>
@@ -4005,7 +4005,7 @@
         <v>987</v>
       </c>
       <c r="D11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1119</v>
@@ -4028,7 +4028,7 @@
         <v>994</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>1119</v>
@@ -4051,7 +4051,7 @@
         <v>991</v>
       </c>
       <c r="D13" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>1119</v>
@@ -4074,7 +4074,7 @@
         <v>997</v>
       </c>
       <c r="D14" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>1119</v>
@@ -4097,7 +4097,7 @@
         <v>999</v>
       </c>
       <c r="D15" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>1119</v>
@@ -4120,7 +4120,7 @@
         <v>1003</v>
       </c>
       <c r="D16" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>1119</v>
@@ -4143,7 +4143,7 @@
         <v>1005</v>
       </c>
       <c r="D17" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>1119</v>
@@ -4166,7 +4166,7 @@
         <v>1055</v>
       </c>
       <c r="D18" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>1119</v>
@@ -6098,7 +6098,7 @@
         <v>303</v>
       </c>
       <c r="D102" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>9</v>
@@ -6121,7 +6121,7 @@
         <v>305</v>
       </c>
       <c r="D103" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>9</v>
@@ -6144,7 +6144,7 @@
         <v>307</v>
       </c>
       <c r="D104" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>9</v>
@@ -6167,7 +6167,7 @@
         <v>309</v>
       </c>
       <c r="D105" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>9</v>
@@ -6190,7 +6190,7 @@
         <v>311</v>
       </c>
       <c r="D106" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>9</v>
@@ -6213,7 +6213,7 @@
         <v>313</v>
       </c>
       <c r="D107" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>9</v>
@@ -6236,7 +6236,7 @@
         <v>315</v>
       </c>
       <c r="D108" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>9</v>
@@ -6259,7 +6259,7 @@
         <v>317</v>
       </c>
       <c r="D109" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>9</v>
@@ -6282,7 +6282,7 @@
         <v>319</v>
       </c>
       <c r="D110" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>9</v>
@@ -6305,7 +6305,7 @@
         <v>321</v>
       </c>
       <c r="D111" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>9</v>
@@ -6328,7 +6328,7 @@
         <v>323</v>
       </c>
       <c r="D112" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>9</v>
@@ -6351,7 +6351,7 @@
         <v>325</v>
       </c>
       <c r="D113" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>9</v>
@@ -6374,7 +6374,7 @@
         <v>327</v>
       </c>
       <c r="D114" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>9</v>
@@ -6397,7 +6397,7 @@
         <v>329</v>
       </c>
       <c r="D115" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>9</v>
@@ -6420,7 +6420,7 @@
         <v>331</v>
       </c>
       <c r="D116" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>9</v>
@@ -6443,7 +6443,7 @@
         <v>333</v>
       </c>
       <c r="D117" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>9</v>
@@ -6466,7 +6466,7 @@
         <v>335</v>
       </c>
       <c r="D118" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>9</v>
@@ -6489,7 +6489,7 @@
         <v>337</v>
       </c>
       <c r="D119" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>9</v>
@@ -6512,7 +6512,7 @@
         <v>339</v>
       </c>
       <c r="D120" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>9</v>
@@ -6535,7 +6535,7 @@
         <v>341</v>
       </c>
       <c r="D121" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>9</v>
@@ -6558,7 +6558,7 @@
         <v>343</v>
       </c>
       <c r="D122" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>9</v>
@@ -6581,7 +6581,7 @@
         <v>345</v>
       </c>
       <c r="D123" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>9</v>
@@ -6604,7 +6604,7 @@
         <v>347</v>
       </c>
       <c r="D124" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>9</v>
@@ -6627,7 +6627,7 @@
         <v>349</v>
       </c>
       <c r="D125" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>9</v>
@@ -6650,7 +6650,7 @@
         <v>351</v>
       </c>
       <c r="D126" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>9</v>
@@ -6673,7 +6673,7 @@
         <v>353</v>
       </c>
       <c r="D127" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>9</v>
@@ -6696,7 +6696,7 @@
         <v>355</v>
       </c>
       <c r="D128" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>9</v>
@@ -6719,7 +6719,7 @@
         <v>357</v>
       </c>
       <c r="D129" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>9</v>
@@ -6742,7 +6742,7 @@
         <v>359</v>
       </c>
       <c r="D130" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>9</v>
@@ -6765,7 +6765,7 @@
         <v>361</v>
       </c>
       <c r="D131" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         <v>363</v>
       </c>
       <c r="D132" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>9</v>
@@ -6811,7 +6811,7 @@
         <v>365</v>
       </c>
       <c r="D133" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>9</v>
@@ -6834,7 +6834,7 @@
         <v>367</v>
       </c>
       <c r="D134" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>9</v>
@@ -6857,7 +6857,7 @@
         <v>369</v>
       </c>
       <c r="D135" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>9</v>
@@ -6880,7 +6880,7 @@
         <v>371</v>
       </c>
       <c r="D136" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>9</v>
@@ -6903,7 +6903,7 @@
         <v>373</v>
       </c>
       <c r="D137" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>9</v>
@@ -6926,7 +6926,7 @@
         <v>375</v>
       </c>
       <c r="D138" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>9</v>
@@ -6949,7 +6949,7 @@
         <v>27</v>
       </c>
       <c r="D139" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>9</v>
@@ -6972,7 +6972,7 @@
         <v>377</v>
       </c>
       <c r="D140" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>9</v>
@@ -6995,7 +6995,7 @@
         <v>379</v>
       </c>
       <c r="D141" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>9</v>
@@ -7018,7 +7018,7 @@
         <v>381</v>
       </c>
       <c r="D142" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>9</v>
@@ -7041,7 +7041,7 @@
         <v>383</v>
       </c>
       <c r="D143" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>9</v>
@@ -7064,7 +7064,7 @@
         <v>385</v>
       </c>
       <c r="D144" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>9</v>
@@ -7087,7 +7087,7 @@
         <v>387</v>
       </c>
       <c r="D145" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>9</v>
@@ -7110,7 +7110,7 @@
         <v>389</v>
       </c>
       <c r="D146" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>9</v>
@@ -7133,7 +7133,7 @@
         <v>391</v>
       </c>
       <c r="D147" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>9</v>
@@ -7156,7 +7156,7 @@
         <v>393</v>
       </c>
       <c r="D148" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>9</v>
@@ -7179,7 +7179,7 @@
         <v>395</v>
       </c>
       <c r="D149" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>9</v>
@@ -7202,7 +7202,7 @@
         <v>397</v>
       </c>
       <c r="D150" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>9</v>
@@ -7225,7 +7225,7 @@
         <v>399</v>
       </c>
       <c r="D151" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>9</v>
@@ -7248,7 +7248,7 @@
         <v>401</v>
       </c>
       <c r="D152" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>9</v>
@@ -7271,7 +7271,7 @@
         <v>403</v>
       </c>
       <c r="D153" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>9</v>
@@ -7294,7 +7294,7 @@
         <v>405</v>
       </c>
       <c r="D154" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>9</v>
@@ -7317,7 +7317,7 @@
         <v>407</v>
       </c>
       <c r="D155" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>9</v>
@@ -7340,7 +7340,7 @@
         <v>409</v>
       </c>
       <c r="D156" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>9</v>
@@ -7363,7 +7363,7 @@
         <v>411</v>
       </c>
       <c r="D157" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>9</v>
@@ -7386,7 +7386,7 @@
         <v>413</v>
       </c>
       <c r="D158" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>9</v>
@@ -7409,7 +7409,7 @@
         <v>415</v>
       </c>
       <c r="D159" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>9</v>
@@ -7432,7 +7432,7 @@
         <v>417</v>
       </c>
       <c r="D160" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>9</v>
@@ -7455,7 +7455,7 @@
         <v>419</v>
       </c>
       <c r="D161" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>9</v>
@@ -7478,7 +7478,7 @@
         <v>421</v>
       </c>
       <c r="D162" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>9</v>
@@ -7501,7 +7501,7 @@
         <v>423</v>
       </c>
       <c r="D163" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>9</v>
@@ -7524,7 +7524,7 @@
         <v>425</v>
       </c>
       <c r="D164" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>9</v>
@@ -7547,7 +7547,7 @@
         <v>427</v>
       </c>
       <c r="D165" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>9</v>
@@ -7570,7 +7570,7 @@
         <v>429</v>
       </c>
       <c r="D166" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>9</v>
@@ -7593,7 +7593,7 @@
         <v>431</v>
       </c>
       <c r="D167" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>9</v>
@@ -7616,7 +7616,7 @@
         <v>433</v>
       </c>
       <c r="D168" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>9</v>
@@ -7639,7 +7639,7 @@
         <v>435</v>
       </c>
       <c r="D169" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>9</v>
@@ -7662,7 +7662,7 @@
         <v>437</v>
       </c>
       <c r="D170" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>9</v>
@@ -7685,7 +7685,7 @@
         <v>439</v>
       </c>
       <c r="D171" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>9</v>
@@ -7708,7 +7708,7 @@
         <v>441</v>
       </c>
       <c r="D172" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>9</v>
@@ -7731,7 +7731,7 @@
         <v>443</v>
       </c>
       <c r="D173" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>9</v>
@@ -7754,7 +7754,7 @@
         <v>445</v>
       </c>
       <c r="D174" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>9</v>
@@ -7777,7 +7777,7 @@
         <v>447</v>
       </c>
       <c r="D175" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>9</v>
@@ -7800,7 +7800,7 @@
         <v>449</v>
       </c>
       <c r="D176" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>9</v>
@@ -7823,7 +7823,7 @@
         <v>451</v>
       </c>
       <c r="D177" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>9</v>
@@ -7846,7 +7846,7 @@
         <v>453</v>
       </c>
       <c r="D178" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>9</v>
@@ -7869,7 +7869,7 @@
         <v>25</v>
       </c>
       <c r="D179" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>9</v>
@@ -7892,7 +7892,7 @@
         <v>455</v>
       </c>
       <c r="D180" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>9</v>
@@ -7915,7 +7915,7 @@
         <v>457</v>
       </c>
       <c r="D181" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>9</v>
@@ -7938,7 +7938,7 @@
         <v>459</v>
       </c>
       <c r="D182" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>9</v>
@@ -7961,7 +7961,7 @@
         <v>639</v>
       </c>
       <c r="D183" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>9</v>
@@ -7984,7 +7984,7 @@
         <v>643</v>
       </c>
       <c r="D184" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>9</v>
@@ -8007,7 +8007,7 @@
         <v>645</v>
       </c>
       <c r="D185" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>9</v>
@@ -8030,7 +8030,7 @@
         <v>647</v>
       </c>
       <c r="D186" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>9</v>
@@ -8053,7 +8053,7 @@
         <v>649</v>
       </c>
       <c r="D187" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>9</v>
@@ -8076,7 +8076,7 @@
         <v>651</v>
       </c>
       <c r="D188" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>9</v>
@@ -8099,7 +8099,7 @@
         <v>653</v>
       </c>
       <c r="D189" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>9</v>
@@ -8122,7 +8122,7 @@
         <v>655</v>
       </c>
       <c r="D190" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>9</v>
@@ -8145,7 +8145,7 @@
         <v>657</v>
       </c>
       <c r="D191" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>9</v>
@@ -8168,7 +8168,7 @@
         <v>659</v>
       </c>
       <c r="D192" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>9</v>
@@ -9502,7 +9502,7 @@
         <v>990</v>
       </c>
       <c r="D250" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>22</v>
@@ -9525,7 +9525,7 @@
         <v>1001</v>
       </c>
       <c r="D251" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>22</v>
@@ -9548,7 +9548,7 @@
         <v>1007</v>
       </c>
       <c r="D252" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>22</v>
@@ -9571,7 +9571,7 @@
         <v>1009</v>
       </c>
       <c r="D253" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>22</v>
@@ -9594,7 +9594,7 @@
         <v>1011</v>
       </c>
       <c r="D254" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>22</v>
@@ -9617,7 +9617,7 @@
         <v>1013</v>
       </c>
       <c r="D255" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>22</v>
@@ -9640,7 +9640,7 @@
         <v>1015</v>
       </c>
       <c r="D256" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>22</v>
@@ -9663,7 +9663,7 @@
         <v>1017</v>
       </c>
       <c r="D257" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>22</v>
@@ -9686,7 +9686,7 @@
         <v>1019</v>
       </c>
       <c r="D258" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>22</v>
@@ -9709,7 +9709,7 @@
         <v>1021</v>
       </c>
       <c r="D259" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>22</v>
@@ -9732,7 +9732,7 @@
         <v>1023</v>
       </c>
       <c r="D260" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>22</v>
@@ -9755,7 +9755,7 @@
         <v>1025</v>
       </c>
       <c r="D261" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>22</v>
@@ -9778,7 +9778,7 @@
         <v>1027</v>
       </c>
       <c r="D262" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>22</v>
@@ -9801,7 +9801,7 @@
         <v>1029</v>
       </c>
       <c r="D263" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>22</v>
@@ -9824,7 +9824,7 @@
         <v>1031</v>
       </c>
       <c r="D264" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>22</v>
@@ -9847,7 +9847,7 @@
         <v>1033</v>
       </c>
       <c r="D265" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>22</v>
@@ -9870,7 +9870,7 @@
         <v>1035</v>
       </c>
       <c r="D266" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>22</v>
@@ -9893,7 +9893,7 @@
         <v>1037</v>
       </c>
       <c r="D267" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>22</v>
@@ -9916,7 +9916,7 @@
         <v>1039</v>
       </c>
       <c r="D268" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>22</v>
@@ -9939,7 +9939,7 @@
         <v>1041</v>
       </c>
       <c r="D269" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>22</v>
@@ -9962,7 +9962,7 @@
         <v>1043</v>
       </c>
       <c r="D270" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>22</v>
@@ -9985,7 +9985,7 @@
         <v>1045</v>
       </c>
       <c r="D271" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>22</v>
@@ -10008,7 +10008,7 @@
         <v>1047</v>
       </c>
       <c r="D272" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>22</v>
@@ -10031,7 +10031,7 @@
         <v>1049</v>
       </c>
       <c r="D273" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>22</v>
@@ -10054,7 +10054,7 @@
         <v>1051</v>
       </c>
       <c r="D274" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>22</v>
@@ -10077,7 +10077,7 @@
         <v>1053</v>
       </c>
       <c r="D275" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>22</v>
@@ -10100,7 +10100,7 @@
         <v>1057</v>
       </c>
       <c r="D276" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>22</v>
@@ -10123,7 +10123,7 @@
         <v>1059</v>
       </c>
       <c r="D277" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>22</v>
@@ -10146,7 +10146,7 @@
         <v>1061</v>
       </c>
       <c r="D278" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>22</v>
@@ -10169,7 +10169,7 @@
         <v>1063</v>
       </c>
       <c r="D279" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>22</v>
@@ -10192,7 +10192,7 @@
         <v>1065</v>
       </c>
       <c r="D280" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>22</v>
@@ -10215,7 +10215,7 @@
         <v>1067</v>
       </c>
       <c r="D281" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>22</v>
@@ -10238,7 +10238,7 @@
         <v>1069</v>
       </c>
       <c r="D282" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>22</v>
@@ -10261,7 +10261,7 @@
         <v>1071</v>
       </c>
       <c r="D283" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>22</v>
@@ -10284,7 +10284,7 @@
         <v>1073</v>
       </c>
       <c r="D284" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>22</v>
@@ -10307,7 +10307,7 @@
         <v>1075</v>
       </c>
       <c r="D285" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>22</v>
@@ -10330,7 +10330,7 @@
         <v>1077</v>
       </c>
       <c r="D286" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>22</v>
@@ -10353,7 +10353,7 @@
         <v>1079</v>
       </c>
       <c r="D287" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>22</v>
@@ -10376,7 +10376,7 @@
         <v>1081</v>
       </c>
       <c r="D288" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>22</v>
@@ -10399,7 +10399,7 @@
         <v>1083</v>
       </c>
       <c r="D289" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>22</v>
@@ -10422,7 +10422,7 @@
         <v>1085</v>
       </c>
       <c r="D290" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>22</v>
@@ -10445,7 +10445,7 @@
         <v>1087</v>
       </c>
       <c r="D291" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>22</v>
@@ -10468,7 +10468,7 @@
         <v>1089</v>
       </c>
       <c r="D292" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>22</v>
@@ -10491,7 +10491,7 @@
         <v>1091</v>
       </c>
       <c r="D293" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>22</v>
@@ -10514,7 +10514,7 @@
         <v>653</v>
       </c>
       <c r="D294" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>22</v>
@@ -10537,7 +10537,7 @@
         <v>1093</v>
       </c>
       <c r="D295" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>22</v>
@@ -10560,7 +10560,7 @@
         <v>1095</v>
       </c>
       <c r="D296" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>22</v>
@@ -10583,7 +10583,7 @@
         <v>1097</v>
       </c>
       <c r="D297" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>22</v>
@@ -10606,7 +10606,7 @@
         <v>1099</v>
       </c>
       <c r="D298" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>22</v>
@@ -10629,7 +10629,7 @@
         <v>1101</v>
       </c>
       <c r="D299" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>22</v>
@@ -10652,7 +10652,7 @@
         <v>1103</v>
       </c>
       <c r="D300" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>22</v>
@@ -10675,7 +10675,7 @@
         <v>1105</v>
       </c>
       <c r="D301" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>22</v>
@@ -10698,7 +10698,7 @@
         <v>1107</v>
       </c>
       <c r="D302" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>22</v>
@@ -10721,7 +10721,7 @@
         <v>1109</v>
       </c>
       <c r="D303" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>22</v>
@@ -10744,7 +10744,7 @@
         <v>1111</v>
       </c>
       <c r="D304" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>22</v>
@@ -10767,7 +10767,7 @@
         <v>1113</v>
       </c>
       <c r="D305" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>22</v>
@@ -10790,7 +10790,7 @@
         <v>100</v>
       </c>
       <c r="D306" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>5</v>
@@ -10813,7 +10813,7 @@
         <v>102</v>
       </c>
       <c r="D307" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>5</v>
@@ -10836,7 +10836,7 @@
         <v>106</v>
       </c>
       <c r="D308" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>5</v>
@@ -10859,7 +10859,7 @@
         <v>108</v>
       </c>
       <c r="D309" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>5</v>
@@ -10882,7 +10882,7 @@
         <v>110</v>
       </c>
       <c r="D310" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>5</v>
@@ -10905,7 +10905,7 @@
         <v>112</v>
       </c>
       <c r="D311" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>5</v>
@@ -10928,7 +10928,7 @@
         <v>114</v>
       </c>
       <c r="D312" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>5</v>
@@ -10951,7 +10951,7 @@
         <v>116</v>
       </c>
       <c r="D313" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>5</v>
@@ -10974,7 +10974,7 @@
         <v>128</v>
       </c>
       <c r="D314" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>5</v>
@@ -10997,7 +10997,7 @@
         <v>130</v>
       </c>
       <c r="D315" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>5</v>
@@ -11020,7 +11020,7 @@
         <v>132</v>
       </c>
       <c r="D316" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>5</v>
@@ -11043,7 +11043,7 @@
         <v>138</v>
       </c>
       <c r="D317" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>5</v>
@@ -11066,7 +11066,7 @@
         <v>140</v>
       </c>
       <c r="D318" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>5</v>
@@ -11089,7 +11089,7 @@
         <v>141</v>
       </c>
       <c r="D319" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>5</v>
@@ -11112,7 +11112,7 @@
         <v>143</v>
       </c>
       <c r="D320" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>5</v>
@@ -11135,7 +11135,7 @@
         <v>145</v>
       </c>
       <c r="D321" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>5</v>
@@ -11158,7 +11158,7 @@
         <v>149</v>
       </c>
       <c r="D322" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>5</v>
@@ -11181,7 +11181,7 @@
         <v>155</v>
       </c>
       <c r="D323" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>5</v>
@@ -11204,7 +11204,7 @@
         <v>157</v>
       </c>
       <c r="D324" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>5</v>
@@ -11227,7 +11227,7 @@
         <v>159</v>
       </c>
       <c r="D325" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>5</v>
@@ -11250,7 +11250,7 @@
         <v>161</v>
       </c>
       <c r="D326" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>5</v>
@@ -11273,7 +11273,7 @@
         <v>165</v>
       </c>
       <c r="D327" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>5</v>
@@ -11296,7 +11296,7 @@
         <v>175</v>
       </c>
       <c r="D328" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>5</v>
@@ -11319,7 +11319,7 @@
         <v>179</v>
       </c>
       <c r="D329" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>5</v>
@@ -11342,7 +11342,7 @@
         <v>181</v>
       </c>
       <c r="D330" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>5</v>
@@ -11365,7 +11365,7 @@
         <v>183</v>
       </c>
       <c r="D331" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>5</v>
@@ -11388,7 +11388,7 @@
         <v>187</v>
       </c>
       <c r="D332" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>5</v>
@@ -11411,7 +11411,7 @@
         <v>189</v>
       </c>
       <c r="D333" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>5</v>
@@ -11434,7 +11434,7 @@
         <v>104</v>
       </c>
       <c r="D334" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>1123</v>
@@ -11457,7 +11457,7 @@
         <v>118</v>
       </c>
       <c r="D335" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>1123</v>
@@ -11480,7 +11480,7 @@
         <v>120</v>
       </c>
       <c r="D336" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>1123</v>
@@ -11503,7 +11503,7 @@
         <v>122</v>
       </c>
       <c r="D337" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>1123</v>
@@ -11526,7 +11526,7 @@
         <v>124</v>
       </c>
       <c r="D338" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>1123</v>
@@ -11549,7 +11549,7 @@
         <v>126</v>
       </c>
       <c r="D339" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>1123</v>
@@ -11572,7 +11572,7 @@
         <v>134</v>
       </c>
       <c r="D340" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>1123</v>
@@ -11595,7 +11595,7 @@
         <v>136</v>
       </c>
       <c r="D341" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>1123</v>
@@ -11618,7 +11618,7 @@
         <v>147</v>
       </c>
       <c r="D342" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>1123</v>
@@ -11641,7 +11641,7 @@
         <v>151</v>
       </c>
       <c r="D343" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>1123</v>
@@ -11664,7 +11664,7 @@
         <v>153</v>
       </c>
       <c r="D344" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>1123</v>
@@ -11687,7 +11687,7 @@
         <v>163</v>
       </c>
       <c r="D345" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>1123</v>
@@ -11710,7 +11710,7 @@
         <v>167</v>
       </c>
       <c r="D346" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>1123</v>
@@ -11733,7 +11733,7 @@
         <v>169</v>
       </c>
       <c r="D347" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>1123</v>
@@ -11756,7 +11756,7 @@
         <v>171</v>
       </c>
       <c r="D348" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>1123</v>
@@ -11779,7 +11779,7 @@
         <v>173</v>
       </c>
       <c r="D349" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>1123</v>
@@ -11802,7 +11802,7 @@
         <v>177</v>
       </c>
       <c r="D350" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>1123</v>
@@ -11825,7 +11825,7 @@
         <v>185</v>
       </c>
       <c r="D351" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>1123</v>
@@ -11848,7 +11848,7 @@
         <v>681</v>
       </c>
       <c r="D352" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>15</v>
@@ -11871,7 +11871,7 @@
         <v>683</v>
       </c>
       <c r="D353" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>15</v>
@@ -11894,7 +11894,7 @@
         <v>685</v>
       </c>
       <c r="D354" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>15</v>
@@ -11917,7 +11917,7 @@
         <v>687</v>
       </c>
       <c r="D355" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>15</v>
@@ -11940,7 +11940,7 @@
         <v>689</v>
       </c>
       <c r="D356" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>15</v>
@@ -11963,7 +11963,7 @@
         <v>691</v>
       </c>
       <c r="D357" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>15</v>
@@ -11986,7 +11986,7 @@
         <v>693</v>
       </c>
       <c r="D358" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>15</v>
@@ -12009,7 +12009,7 @@
         <v>695</v>
       </c>
       <c r="D359" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>15</v>
@@ -12032,7 +12032,7 @@
         <v>697</v>
       </c>
       <c r="D360" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>15</v>
@@ -12055,7 +12055,7 @@
         <v>699</v>
       </c>
       <c r="D361" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>15</v>
@@ -12078,7 +12078,7 @@
         <v>701</v>
       </c>
       <c r="D362" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>15</v>
@@ -12101,7 +12101,7 @@
         <v>703</v>
       </c>
       <c r="D363" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>15</v>
@@ -12124,7 +12124,7 @@
         <v>705</v>
       </c>
       <c r="D364" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>15</v>
@@ -12147,7 +12147,7 @@
         <v>707</v>
       </c>
       <c r="D365" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>15</v>
@@ -12170,7 +12170,7 @@
         <v>709</v>
       </c>
       <c r="D366" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>15</v>
@@ -12193,7 +12193,7 @@
         <v>711</v>
       </c>
       <c r="D367" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>15</v>
@@ -12216,7 +12216,7 @@
         <v>713</v>
       </c>
       <c r="D368" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>15</v>
@@ -12239,7 +12239,7 @@
         <v>715</v>
       </c>
       <c r="D369" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>15</v>
@@ -12262,7 +12262,7 @@
         <v>717</v>
       </c>
       <c r="D370" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>15</v>
@@ -12285,7 +12285,7 @@
         <v>719</v>
       </c>
       <c r="D371" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>15</v>
@@ -12308,7 +12308,7 @@
         <v>721</v>
       </c>
       <c r="D372" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>15</v>
@@ -12331,7 +12331,7 @@
         <v>723</v>
       </c>
       <c r="D373" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>15</v>
@@ -12354,7 +12354,7 @@
         <v>725</v>
       </c>
       <c r="D374" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>15</v>
@@ -12377,7 +12377,7 @@
         <v>727</v>
       </c>
       <c r="D375" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>15</v>
@@ -12400,7 +12400,7 @@
         <v>729</v>
       </c>
       <c r="D376" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>15</v>
@@ -12423,7 +12423,7 @@
         <v>731</v>
       </c>
       <c r="D377" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>15</v>
@@ -12446,7 +12446,7 @@
         <v>733</v>
       </c>
       <c r="D378" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>15</v>
@@ -12469,7 +12469,7 @@
         <v>735</v>
       </c>
       <c r="D379" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>15</v>
@@ -12492,7 +12492,7 @@
         <v>737</v>
       </c>
       <c r="D380" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>15</v>
@@ -12515,7 +12515,7 @@
         <v>739</v>
       </c>
       <c r="D381" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>15</v>
@@ -12538,7 +12538,7 @@
         <v>741</v>
       </c>
       <c r="D382" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>15</v>
@@ -12561,7 +12561,7 @@
         <v>743</v>
       </c>
       <c r="D383" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>15</v>
@@ -12584,7 +12584,7 @@
         <v>745</v>
       </c>
       <c r="D384" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>15</v>
@@ -12607,7 +12607,7 @@
         <v>747</v>
       </c>
       <c r="D385" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>15</v>
@@ -12630,7 +12630,7 @@
         <v>749</v>
       </c>
       <c r="D386" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>15</v>
@@ -12653,7 +12653,7 @@
         <v>751</v>
       </c>
       <c r="D387" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>15</v>
@@ -12676,7 +12676,7 @@
         <v>753</v>
       </c>
       <c r="D388" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>15</v>
@@ -12699,7 +12699,7 @@
         <v>755</v>
       </c>
       <c r="D389" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>15</v>
@@ -12722,7 +12722,7 @@
         <v>757</v>
       </c>
       <c r="D390" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>15</v>
@@ -12745,7 +12745,7 @@
         <v>759</v>
       </c>
       <c r="D391" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>15</v>
@@ -12768,7 +12768,7 @@
         <v>761</v>
       </c>
       <c r="D392" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>15</v>
@@ -12791,7 +12791,7 @@
         <v>893</v>
       </c>
       <c r="D393" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>20</v>
@@ -12814,7 +12814,7 @@
         <v>895</v>
       </c>
       <c r="D394" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>20</v>
@@ -12837,7 +12837,7 @@
         <v>897</v>
       </c>
       <c r="D395" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>20</v>
@@ -12860,7 +12860,7 @@
         <v>899</v>
       </c>
       <c r="D396" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>20</v>
@@ -12883,7 +12883,7 @@
         <v>143</v>
       </c>
       <c r="D397" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>20</v>
@@ -12906,7 +12906,7 @@
         <v>901</v>
       </c>
       <c r="D398" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>20</v>
@@ -12929,7 +12929,7 @@
         <v>903</v>
       </c>
       <c r="D399" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E399" s="1" t="s">
         <v>20</v>
@@ -12952,7 +12952,7 @@
         <v>905</v>
       </c>
       <c r="D400" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>20</v>
@@ -12975,7 +12975,7 @@
         <v>907</v>
       </c>
       <c r="D401" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E401" s="1" t="s">
         <v>20</v>
@@ -12998,7 +12998,7 @@
         <v>909</v>
       </c>
       <c r="D402" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>20</v>
@@ -13021,7 +13021,7 @@
         <v>911</v>
       </c>
       <c r="D403" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>20</v>
@@ -13044,7 +13044,7 @@
         <v>913</v>
       </c>
       <c r="D404" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>20</v>
@@ -13067,7 +13067,7 @@
         <v>915</v>
       </c>
       <c r="D405" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E405" s="1" t="s">
         <v>20</v>
@@ -13090,7 +13090,7 @@
         <v>917</v>
       </c>
       <c r="D406" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E406" s="1" t="s">
         <v>20</v>
@@ -13113,7 +13113,7 @@
         <v>919</v>
       </c>
       <c r="D407" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>20</v>
@@ -13136,7 +13136,7 @@
         <v>921</v>
       </c>
       <c r="D408" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>20</v>
@@ -13159,7 +13159,7 @@
         <v>923</v>
       </c>
       <c r="D409" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E409" s="1" t="s">
         <v>20</v>
@@ -13182,7 +13182,7 @@
         <v>925</v>
       </c>
       <c r="D410" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E410" s="1" t="s">
         <v>20</v>
@@ -13205,7 +13205,7 @@
         <v>927</v>
       </c>
       <c r="D411" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E411" s="1" t="s">
         <v>20</v>
@@ -13228,7 +13228,7 @@
         <v>929</v>
       </c>
       <c r="D412" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E412" s="1" t="s">
         <v>20</v>
@@ -13251,7 +13251,7 @@
         <v>931</v>
       </c>
       <c r="D413" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>20</v>
@@ -13274,7 +13274,7 @@
         <v>933</v>
       </c>
       <c r="D414" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>20</v>
@@ -13297,7 +13297,7 @@
         <v>935</v>
       </c>
       <c r="D415" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>20</v>
@@ -13320,7 +13320,7 @@
         <v>937</v>
       </c>
       <c r="D416" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E416" s="1" t="s">
         <v>20</v>
@@ -13343,7 +13343,7 @@
         <v>939</v>
       </c>
       <c r="D417" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E417" s="1" t="s">
         <v>20</v>
@@ -13366,7 +13366,7 @@
         <v>941</v>
       </c>
       <c r="D418" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E418" s="1" t="s">
         <v>20</v>
@@ -13389,7 +13389,7 @@
         <v>943</v>
       </c>
       <c r="D419" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>20</v>
@@ -13412,7 +13412,7 @@
         <v>945</v>
       </c>
       <c r="D420" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>20</v>
@@ -13435,7 +13435,7 @@
         <v>947</v>
       </c>
       <c r="D421" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E421" s="1" t="s">
         <v>20</v>
@@ -13458,7 +13458,7 @@
         <v>949</v>
       </c>
       <c r="D422" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>20</v>
@@ -13481,7 +13481,7 @@
         <v>951</v>
       </c>
       <c r="D423" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>20</v>
@@ -13504,7 +13504,7 @@
         <v>953</v>
       </c>
       <c r="D424" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E424" s="1" t="s">
         <v>20</v>
@@ -13527,7 +13527,7 @@
         <v>955</v>
       </c>
       <c r="D425" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>20</v>
@@ -13550,7 +13550,7 @@
         <v>957</v>
       </c>
       <c r="D426" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>20</v>
@@ -13573,7 +13573,7 @@
         <v>959</v>
       </c>
       <c r="D427" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E427" s="1" t="s">
         <v>20</v>
@@ -13596,7 +13596,7 @@
         <v>961</v>
       </c>
       <c r="D428" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E428" s="1" t="s">
         <v>20</v>
@@ -13619,7 +13619,7 @@
         <v>963</v>
       </c>
       <c r="D429" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>20</v>
@@ -13642,7 +13642,7 @@
         <v>965</v>
       </c>
       <c r="D430" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E430" s="1" t="s">
         <v>20</v>
@@ -13665,7 +13665,7 @@
         <v>967</v>
       </c>
       <c r="D431" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>20</v>
@@ -13688,7 +13688,7 @@
         <v>969</v>
       </c>
       <c r="D432" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>20</v>
@@ -13711,7 +13711,7 @@
         <v>971</v>
       </c>
       <c r="D433" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E433" s="1" t="s">
         <v>20</v>
@@ -13734,7 +13734,7 @@
         <v>973</v>
       </c>
       <c r="D434" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>20</v>
@@ -13757,7 +13757,7 @@
         <v>461</v>
       </c>
       <c r="D435" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E435" s="1" t="s">
         <v>11</v>
@@ -13780,7 +13780,7 @@
         <v>463</v>
       </c>
       <c r="D436" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E436" s="1" t="s">
         <v>11</v>
@@ -13803,7 +13803,7 @@
         <v>465</v>
       </c>
       <c r="D437" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>11</v>
@@ -13826,7 +13826,7 @@
         <v>467</v>
       </c>
       <c r="D438" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E438" s="1" t="s">
         <v>11</v>
@@ -13849,7 +13849,7 @@
         <v>469</v>
       </c>
       <c r="D439" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E439" s="1" t="s">
         <v>11</v>
@@ -13872,7 +13872,7 @@
         <v>475</v>
       </c>
       <c r="D440" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E440" s="1" t="s">
         <v>11</v>
@@ -13895,7 +13895,7 @@
         <v>485</v>
       </c>
       <c r="D441" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E441" s="1" t="s">
         <v>11</v>
@@ -13918,7 +13918,7 @@
         <v>487</v>
       </c>
       <c r="D442" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>11</v>
@@ -13941,7 +13941,7 @@
         <v>489</v>
       </c>
       <c r="D443" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E443" s="1" t="s">
         <v>11</v>
@@ -13964,7 +13964,7 @@
         <v>491</v>
       </c>
       <c r="D444" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E444" s="1" t="s">
         <v>11</v>
@@ -13987,7 +13987,7 @@
         <v>493</v>
       </c>
       <c r="D445" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E445" s="1" t="s">
         <v>11</v>
@@ -14010,7 +14010,7 @@
         <v>495</v>
       </c>
       <c r="D446" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E446" s="1" t="s">
         <v>11</v>
@@ -14033,7 +14033,7 @@
         <v>497</v>
       </c>
       <c r="D447" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E447" s="1" t="s">
         <v>11</v>
@@ -14056,7 +14056,7 @@
         <v>499</v>
       </c>
       <c r="D448" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E448" s="1" t="s">
         <v>11</v>
@@ -14079,7 +14079,7 @@
         <v>501</v>
       </c>
       <c r="D449" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E449" s="1" t="s">
         <v>11</v>
@@ -14102,7 +14102,7 @@
         <v>503</v>
       </c>
       <c r="D450" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E450" s="1" t="s">
         <v>11</v>
@@ -14125,7 +14125,7 @@
         <v>505</v>
       </c>
       <c r="D451" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E451" s="1" t="s">
         <v>11</v>
@@ -14148,7 +14148,7 @@
         <v>507</v>
       </c>
       <c r="D452" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E452" s="1" t="s">
         <v>11</v>
@@ -14171,7 +14171,7 @@
         <v>509</v>
       </c>
       <c r="D453" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E453" s="1" t="s">
         <v>11</v>
@@ -14194,7 +14194,7 @@
         <v>517</v>
       </c>
       <c r="D454" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E454" s="1" t="s">
         <v>11</v>
@@ -14217,7 +14217,7 @@
         <v>523</v>
       </c>
       <c r="D455" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E455" s="1" t="s">
         <v>11</v>
@@ -14240,7 +14240,7 @@
         <v>525</v>
       </c>
       <c r="D456" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E456" s="1" t="s">
         <v>11</v>
@@ -14263,7 +14263,7 @@
         <v>527</v>
       </c>
       <c r="D457" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E457" s="1" t="s">
         <v>11</v>
@@ -14286,7 +14286,7 @@
         <v>529</v>
       </c>
       <c r="D458" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E458" s="1" t="s">
         <v>11</v>
@@ -14309,7 +14309,7 @@
         <v>84</v>
       </c>
       <c r="D459" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E459" s="1" t="s">
         <v>11</v>
@@ -14332,7 +14332,7 @@
         <v>531</v>
       </c>
       <c r="D460" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E460" s="1" t="s">
         <v>11</v>
@@ -14355,7 +14355,7 @@
         <v>533</v>
       </c>
       <c r="D461" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E461" s="1" t="s">
         <v>11</v>
@@ -14378,7 +14378,7 @@
         <v>535</v>
       </c>
       <c r="D462" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E462" s="1" t="s">
         <v>11</v>
@@ -14401,7 +14401,7 @@
         <v>537</v>
       </c>
       <c r="D463" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E463" s="1" t="s">
         <v>11</v>
@@ -14424,7 +14424,7 @@
         <v>539</v>
       </c>
       <c r="D464" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E464" s="1" t="s">
         <v>11</v>
@@ -14447,7 +14447,7 @@
         <v>541</v>
       </c>
       <c r="D465" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E465" s="1" t="s">
         <v>11</v>
@@ -14470,7 +14470,7 @@
         <v>543</v>
       </c>
       <c r="D466" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E466" s="1" t="s">
         <v>11</v>
@@ -14493,7 +14493,7 @@
         <v>545</v>
       </c>
       <c r="D467" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E467" s="1" t="s">
         <v>11</v>
@@ -14516,7 +14516,7 @@
         <v>547</v>
       </c>
       <c r="D468" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E468" s="1" t="s">
         <v>11</v>
@@ -14539,7 +14539,7 @@
         <v>549</v>
       </c>
       <c r="D469" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E469" s="1" t="s">
         <v>11</v>
@@ -14562,7 +14562,7 @@
         <v>551</v>
       </c>
       <c r="D470" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E470" s="1" t="s">
         <v>11</v>
@@ -14585,7 +14585,7 @@
         <v>553</v>
       </c>
       <c r="D471" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E471" s="1" t="s">
         <v>11</v>
@@ -14608,7 +14608,7 @@
         <v>555</v>
       </c>
       <c r="D472" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E472" s="1" t="s">
         <v>11</v>
@@ -14631,7 +14631,7 @@
         <v>557</v>
       </c>
       <c r="D473" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E473" s="1" t="s">
         <v>11</v>
@@ -14654,7 +14654,7 @@
         <v>559</v>
       </c>
       <c r="D474" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E474" s="1" t="s">
         <v>11</v>
@@ -14677,7 +14677,7 @@
         <v>561</v>
       </c>
       <c r="D475" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E475" s="1" t="s">
         <v>11</v>
@@ -14700,7 +14700,7 @@
         <v>563</v>
       </c>
       <c r="D476" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E476" s="1" t="s">
         <v>11</v>
@@ -14723,7 +14723,7 @@
         <v>565</v>
       </c>
       <c r="D477" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E477" s="1" t="s">
         <v>11</v>
@@ -14746,7 +14746,7 @@
         <v>567</v>
       </c>
       <c r="D478" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E478" s="1" t="s">
         <v>11</v>
@@ -14769,7 +14769,7 @@
         <v>569</v>
       </c>
       <c r="D479" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E479" s="1" t="s">
         <v>11</v>
@@ -14792,7 +14792,7 @@
         <v>571</v>
       </c>
       <c r="D480" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E480" s="1" t="s">
         <v>11</v>
@@ -14815,7 +14815,7 @@
         <v>573</v>
       </c>
       <c r="D481" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E481" s="1" t="s">
         <v>11</v>
@@ -14838,7 +14838,7 @@
         <v>575</v>
       </c>
       <c r="D482" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E482" s="1" t="s">
         <v>11</v>
@@ -14861,7 +14861,7 @@
         <v>577</v>
       </c>
       <c r="D483" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E483" s="1" t="s">
         <v>11</v>
@@ -14884,7 +14884,7 @@
         <v>579</v>
       </c>
       <c r="D484" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E484" s="1" t="s">
         <v>11</v>
@@ -14907,7 +14907,7 @@
         <v>581</v>
       </c>
       <c r="D485" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E485" s="1" t="s">
         <v>11</v>
@@ -14930,7 +14930,7 @@
         <v>583</v>
       </c>
       <c r="D486" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E486" s="1" t="s">
         <v>11</v>
@@ -14953,7 +14953,7 @@
         <v>585</v>
       </c>
       <c r="D487" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E487" s="1" t="s">
         <v>11</v>
@@ -14976,7 +14976,7 @@
         <v>587</v>
       </c>
       <c r="D488" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E488" s="1" t="s">
         <v>11</v>
@@ -14999,7 +14999,7 @@
         <v>589</v>
       </c>
       <c r="D489" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E489" s="1" t="s">
         <v>11</v>
@@ -15022,7 +15022,7 @@
         <v>591</v>
       </c>
       <c r="D490" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E490" s="1" t="s">
         <v>11</v>
@@ -15045,7 +15045,7 @@
         <v>593</v>
       </c>
       <c r="D491" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E491" s="1" t="s">
         <v>11</v>
@@ -15068,7 +15068,7 @@
         <v>595</v>
       </c>
       <c r="D492" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E492" s="1" t="s">
         <v>11</v>
@@ -15091,7 +15091,7 @@
         <v>597</v>
       </c>
       <c r="D493" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E493" s="1" t="s">
         <v>11</v>
@@ -15114,7 +15114,7 @@
         <v>599</v>
       </c>
       <c r="D494" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E494" s="1" t="s">
         <v>11</v>
@@ -15137,7 +15137,7 @@
         <v>601</v>
       </c>
       <c r="D495" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E495" s="1" t="s">
         <v>11</v>
@@ -15160,7 +15160,7 @@
         <v>603</v>
       </c>
       <c r="D496" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E496" s="1" t="s">
         <v>11</v>
@@ -15183,7 +15183,7 @@
         <v>605</v>
       </c>
       <c r="D497" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E497" s="1" t="s">
         <v>11</v>
@@ -15206,7 +15206,7 @@
         <v>607</v>
       </c>
       <c r="D498" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E498" s="1" t="s">
         <v>11</v>
@@ -15229,7 +15229,7 @@
         <v>609</v>
       </c>
       <c r="D499" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E499" s="1" t="s">
         <v>11</v>
@@ -15252,7 +15252,7 @@
         <v>611</v>
       </c>
       <c r="D500" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E500" s="1" t="s">
         <v>11</v>
@@ -15275,7 +15275,7 @@
         <v>613</v>
       </c>
       <c r="D501" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E501" s="1" t="s">
         <v>11</v>
@@ -15298,7 +15298,7 @@
         <v>615</v>
       </c>
       <c r="D502" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E502" s="1" t="s">
         <v>11</v>
@@ -15321,7 +15321,7 @@
         <v>617</v>
       </c>
       <c r="D503" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E503" s="1" t="s">
         <v>11</v>
@@ -15344,7 +15344,7 @@
         <v>619</v>
       </c>
       <c r="D504" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E504" s="1" t="s">
         <v>11</v>
@@ -15367,7 +15367,7 @@
         <v>621</v>
       </c>
       <c r="D505" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E505" s="1" t="s">
         <v>11</v>
@@ -15390,7 +15390,7 @@
         <v>623</v>
       </c>
       <c r="D506" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E506" s="1" t="s">
         <v>11</v>
@@ -15413,7 +15413,7 @@
         <v>625</v>
       </c>
       <c r="D507" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E507" s="1" t="s">
         <v>11</v>
@@ -15436,7 +15436,7 @@
         <v>14</v>
       </c>
       <c r="D508" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E508" s="1" t="s">
         <v>11</v>
@@ -15459,7 +15459,7 @@
         <v>627</v>
       </c>
       <c r="D509" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E509" s="1" t="s">
         <v>11</v>
@@ -15482,7 +15482,7 @@
         <v>629</v>
       </c>
       <c r="D510" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E510" s="1" t="s">
         <v>11</v>
@@ -15505,7 +15505,7 @@
         <v>631</v>
       </c>
       <c r="D511" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E511" s="1" t="s">
         <v>11</v>
@@ -15528,7 +15528,7 @@
         <v>633</v>
       </c>
       <c r="D512" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E512" s="1" t="s">
         <v>11</v>
@@ -15551,7 +15551,7 @@
         <v>635</v>
       </c>
       <c r="D513" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E513" s="1" t="s">
         <v>11</v>
@@ -15574,7 +15574,7 @@
         <v>637</v>
       </c>
       <c r="D514" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E514" s="1" t="s">
         <v>11</v>
@@ -15597,7 +15597,7 @@
         <v>257</v>
       </c>
       <c r="D515" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E515" s="1" t="s">
         <v>11</v>
@@ -15620,7 +15620,7 @@
         <v>641</v>
       </c>
       <c r="D516" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E516" s="1" t="s">
         <v>11</v>
@@ -15643,7 +15643,7 @@
         <v>661</v>
       </c>
       <c r="D517" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E517" s="1" t="s">
         <v>11</v>
@@ -15666,7 +15666,7 @@
         <v>663</v>
       </c>
       <c r="D518" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E518" s="1" t="s">
         <v>11</v>
@@ -15689,7 +15689,7 @@
         <v>665</v>
       </c>
       <c r="D519" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E519" s="1" t="s">
         <v>11</v>
@@ -15712,7 +15712,7 @@
         <v>667</v>
       </c>
       <c r="D520" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E520" s="1" t="s">
         <v>11</v>
@@ -15735,7 +15735,7 @@
         <v>669</v>
       </c>
       <c r="D521" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E521" s="1" t="s">
         <v>11</v>
@@ -15758,7 +15758,7 @@
         <v>671</v>
       </c>
       <c r="D522" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E522" s="1" t="s">
         <v>11</v>
@@ -15781,7 +15781,7 @@
         <v>673</v>
       </c>
       <c r="D523" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E523" s="1" t="s">
         <v>11</v>
@@ -15804,7 +15804,7 @@
         <v>675</v>
       </c>
       <c r="D524" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E524" s="1" t="s">
         <v>11</v>
@@ -15827,7 +15827,7 @@
         <v>677</v>
       </c>
       <c r="D525" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E525" s="1" t="s">
         <v>11</v>
@@ -15850,7 +15850,7 @@
         <v>679</v>
       </c>
       <c r="D526" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E526" s="1" t="s">
         <v>11</v>
@@ -15873,7 +15873,7 @@
         <v>471</v>
       </c>
       <c r="D527" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E527" s="1" t="s">
         <v>1121</v>
@@ -15896,7 +15896,7 @@
         <v>473</v>
       </c>
       <c r="D528" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E528" s="1" t="s">
         <v>1121</v>
@@ -15919,7 +15919,7 @@
         <v>477</v>
       </c>
       <c r="D529" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E529" s="1" t="s">
         <v>1121</v>
@@ -15942,7 +15942,7 @@
         <v>479</v>
       </c>
       <c r="D530" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E530" s="1" t="s">
         <v>1121</v>
@@ -15965,7 +15965,7 @@
         <v>481</v>
       </c>
       <c r="D531" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E531" s="1" t="s">
         <v>1121</v>
@@ -15988,7 +15988,7 @@
         <v>483</v>
       </c>
       <c r="D532" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E532" s="1" t="s">
         <v>1121</v>
@@ -16011,7 +16011,7 @@
         <v>511</v>
       </c>
       <c r="D533" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E533" s="1" t="s">
         <v>1121</v>
@@ -16034,7 +16034,7 @@
         <v>513</v>
       </c>
       <c r="D534" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E534" s="1" t="s">
         <v>1121</v>
@@ -16057,7 +16057,7 @@
         <v>12</v>
       </c>
       <c r="D535" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E535" s="1" t="s">
         <v>1121</v>
@@ -16080,7 +16080,7 @@
         <v>515</v>
       </c>
       <c r="D536" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E536" s="1" t="s">
         <v>1121</v>
@@ -16103,7 +16103,7 @@
         <v>519</v>
       </c>
       <c r="D537" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E537" s="1" t="s">
         <v>1121</v>
@@ -16126,7 +16126,7 @@
         <v>521</v>
       </c>
       <c r="D538" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E538" s="1" t="s">
         <v>1121</v>
